--- a/adhafera/test/system_spec.xlsx
+++ b/adhafera/test/system_spec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15660" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15660" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="正常系" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="61">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -48,7 +48,834 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>家計簿を登録</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>1.0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステータスコード200を返す
+・正しい検索結果を返す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を検索（組み合わせ条件）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を検索（条件なし）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステータスコード200を返す
+・全ての家計簿を返す</t>
+    <rPh sb="17" eb="18">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>カケイボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を検索（日付指定）</t>
+    <rPh sb="7" eb="9">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を検索（内容指定）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を検索（カテゴリ指定）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を検索（金額指定）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を更新（日付条件指定）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を更新（内容条件指定）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を更新（カテゴリ条件指定）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を更新（金額条件指定）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を更新（組み合わせ条件指定）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を更新（条件なし）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を更新（更新後の日付指定）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウシンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を更新（更新後の内容指定）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を更新（更新後のカテゴリ指定）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウシンゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を更新（更新後の金額指定）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウシンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を削除（日付指定）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を削除（内容指定）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を更新（更新後の値を複数指定）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウシンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>フクスウシテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を削除（カテゴリ指定）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を削除（金額指定）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を削除（組み合わせ条件）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステータスコード200を返す
+・正しい更新結果を返す</t>
+    <rPh sb="13" eb="14">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>コウシンケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステータスコード204を返す</t>
+    <rPh sb="13" eb="14">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステータスコード201を返す
+・登録した家計簿を返す</t>
+    <rPh sb="13" eb="14">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステータスコード200を返す
+・正しい検索結果を返す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を削除（条件なし）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収支を見る（月次指定）</t>
+    <rPh sb="0" eb="2">
+      <t>シュウシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ゲツジシテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収支を見る（週次指定）</t>
+    <rPh sb="0" eb="2">
+      <t>シュウシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>シュウジシテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収支を見る（日次指定）</t>
+    <rPh sb="0" eb="2">
+      <t>シュウシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステータスコード200を返す
+・正しい計算結果を返す</t>
+    <rPh sb="13" eb="14">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を登録（日付なし）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を登録（内容なし）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を登録（カテゴリなし）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を登録（金額なし）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を登録（複数項目なし）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>フクスウコウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を登録（全てなし）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を登録（金額不正）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>キンガクフセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を登録（日付不正）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を登録（日付，金額不正）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を検索（日付不正）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を検索（金額不正）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を更新（日付条件不正）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を更新（金額条件不正）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を更新（更新後の日付不正）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウシンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を更新（更新後の金額不正）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウシンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を更新（更新後の値なし）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を削除（日付不正）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を削除（金額不正）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収支を見る（期間指定なし）</t>
+    <rPh sb="0" eb="2">
+      <t>シュウシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>キカンシテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステータスコード400を返す
+・正しいエラーコードを返す</t>
+    <rPh sb="13" eb="14">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カエ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -105,7 +932,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -287,35 +1114,358 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="25">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -644,10 +1794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E4"/>
+  <dimension ref="B1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -670,29 +1820,388 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="5">
+    <row r="3" spans="2:5" ht="31">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="2:5" ht="19" thickBot="1">
-      <c r="B4" s="9">
+      <c r="D3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="31">
+      <c r="B4" s="13">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="31">
+      <c r="B5" s="17">
+        <v>3</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="31">
+      <c r="B6" s="17">
+        <v>4</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="31">
+      <c r="B7" s="17">
         <v>5</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
+      <c r="C7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="31">
+      <c r="B8" s="17">
+        <v>6</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="31">
+      <c r="B9" s="17">
+        <v>7</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="31">
+      <c r="B10" s="17">
+        <v>8</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="31">
+      <c r="B11" s="17">
+        <v>9</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="31">
+      <c r="B12" s="17">
+        <v>10</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="31">
+      <c r="B13" s="17">
+        <v>11</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="31">
+      <c r="B14" s="17">
+        <v>12</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="31">
+      <c r="B15" s="17">
+        <v>13</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="31">
+      <c r="B16" s="21">
+        <v>14</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="31">
+      <c r="B17" s="21">
+        <v>15</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="31">
+      <c r="B18" s="21">
+        <v>16</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="31">
+      <c r="B19" s="21">
+        <v>17</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="31">
+      <c r="B20" s="21">
+        <v>18</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="21">
+        <v>19</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="21">
+        <v>20</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="21">
+        <v>21</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="21">
+        <v>22</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="21">
+        <v>23</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="21">
+        <v>24</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="31">
+      <c r="B27" s="21">
+        <v>25</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="31">
+      <c r="B28" s="21">
+        <v>26</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="32" thickBot="1">
+      <c r="B29" s="11">
+        <v>27</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -703,10 +2212,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E4"/>
+  <dimension ref="B1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -729,25 +2238,277 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="5">
+    <row r="3" spans="2:5" ht="31">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="2:5" ht="19" thickBot="1">
-      <c r="B4" s="9">
+      <c r="D3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="31">
+      <c r="B4" s="27">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="31">
+      <c r="B5" s="27">
+        <v>3</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="31">
+      <c r="B6" s="27">
+        <v>4</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="31">
+      <c r="B7" s="27">
         <v>5</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
+      <c r="C7" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="31">
+      <c r="B8" s="27">
+        <v>6</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="31">
+      <c r="B9" s="17">
+        <v>7</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="31">
+      <c r="B10" s="17">
+        <v>8</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="31">
+      <c r="B11" s="17">
+        <v>9</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="31">
+      <c r="B12" s="17">
+        <v>10</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="31">
+      <c r="B13" s="17">
+        <v>11</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="31">
+      <c r="B14" s="17">
+        <v>12</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="31">
+      <c r="B15" s="17">
+        <v>13</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="31">
+      <c r="B16" s="17">
+        <v>14</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="31">
+      <c r="B17" s="17">
+        <v>15</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="31">
+      <c r="B18" s="17">
+        <v>16</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="31">
+      <c r="B19" s="17">
+        <v>17</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="31">
+      <c r="B20" s="17">
+        <v>18</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="32" thickBot="1">
+      <c r="B21" s="21">
+        <v>19</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/adhafera/test/system_spec.xlsx
+++ b/adhafera/test/system_spec.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="130">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -876,6 +876,293 @@
     <rPh sb="27" eb="28">
       <t>カエ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Query</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Body</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/[:table]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date, content, category, price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/[:table]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: date
+with: *</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: content
+with: *</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: category
+with: *</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: price
+with: *</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: [date, content, category, price]{2,4}
+with: *</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[date, content, category, price]{2,4}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: -
+with: *</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: *
+with: date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: *
+with: content</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: *
+with: category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: *
+with: price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: *
+with: [date, content, category, price]{2,4}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[date, content, category, price]{2,4}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/settlement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/settlement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>period=monthly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>period=weekly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>period=daily</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Query</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Body</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/[:table]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>content, category, price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date, category, price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date, content, price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date, content, category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[date, content, category, price]{1,2}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>invalid_date, content, category, price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date, content, category, invalid_price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>invalid_date, content, category, invalid_price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date=invalid_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price=invalid_price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>period=invalid_period</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: invalid_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: invalid_price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>with: invalid_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>with: invalid_price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>with: -</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>invalid_date, content, category, price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date, content, category, invalid_price</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -932,7 +1219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1321,6 +1608,89 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1351,7 +1721,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1438,6 +1808,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1794,19 +2201,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E29"/>
+  <dimension ref="B1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="5" width="70.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="7" width="40.1640625" customWidth="1"/>
+    <col min="8" max="8" width="47.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="19" thickBot="1"/>
-    <row r="2" spans="2:5" ht="19" thickBot="1">
+    <row r="1" spans="2:8" ht="19" thickBot="1"/>
+    <row r="2" spans="2:8" ht="19" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1816,11 +2227,20 @@
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="31">
+    <row r="3" spans="2:8" ht="31">
       <c r="B3" s="10">
         <v>1</v>
       </c>
@@ -1830,11 +2250,20 @@
       <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="31">
+    <row r="4" spans="2:8" ht="31">
       <c r="B4" s="13">
         <v>2</v>
       </c>
@@ -1844,11 +2273,20 @@
       <c r="D4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="31">
+    <row r="5" spans="2:8" ht="31">
       <c r="B5" s="17">
         <v>3</v>
       </c>
@@ -1858,11 +2296,20 @@
       <c r="D5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="31">
+    <row r="6" spans="2:8" ht="31">
       <c r="B6" s="17">
         <v>4</v>
       </c>
@@ -1872,11 +2319,20 @@
       <c r="D6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="31">
+    <row r="7" spans="2:8" ht="31">
       <c r="B7" s="17">
         <v>5</v>
       </c>
@@ -1886,11 +2342,20 @@
       <c r="D7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="31">
+    <row r="8" spans="2:8" ht="31">
       <c r="B8" s="17">
         <v>6</v>
       </c>
@@ -1900,11 +2365,20 @@
       <c r="D8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="31">
+    <row r="9" spans="2:8" ht="31">
       <c r="B9" s="17">
         <v>7</v>
       </c>
@@ -1914,11 +2388,20 @@
       <c r="D9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="31">
+    <row r="10" spans="2:8" ht="31">
       <c r="B10" s="17">
         <v>8</v>
       </c>
@@ -1928,11 +2411,20 @@
       <c r="D10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="31">
+    <row r="11" spans="2:8" ht="31">
       <c r="B11" s="17">
         <v>9</v>
       </c>
@@ -1942,11 +2434,20 @@
       <c r="D11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="31">
+    <row r="12" spans="2:8" ht="31">
       <c r="B12" s="17">
         <v>10</v>
       </c>
@@ -1956,11 +2457,20 @@
       <c r="D12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="31">
+    <row r="13" spans="2:8" ht="31">
       <c r="B13" s="17">
         <v>11</v>
       </c>
@@ -1970,11 +2480,20 @@
       <c r="D13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="31">
+    <row r="14" spans="2:8" ht="31">
       <c r="B14" s="17">
         <v>12</v>
       </c>
@@ -1984,11 +2503,20 @@
       <c r="D14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="31">
+    <row r="15" spans="2:8" ht="31">
       <c r="B15" s="17">
         <v>13</v>
       </c>
@@ -1998,11 +2526,20 @@
       <c r="D15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="31">
+    <row r="16" spans="2:8" ht="31">
       <c r="B16" s="21">
         <v>14</v>
       </c>
@@ -2012,11 +2549,20 @@
       <c r="D16" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="31">
+    <row r="17" spans="2:8" ht="31">
       <c r="B17" s="21">
         <v>15</v>
       </c>
@@ -2026,11 +2572,20 @@
       <c r="D17" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="31">
+    <row r="18" spans="2:8" ht="31">
       <c r="B18" s="21">
         <v>16</v>
       </c>
@@ -2040,11 +2595,20 @@
       <c r="D18" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="31">
+    <row r="19" spans="2:8" ht="31">
       <c r="B19" s="21">
         <v>17</v>
       </c>
@@ -2054,11 +2618,20 @@
       <c r="D19" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="31">
+    <row r="20" spans="2:8" ht="31">
       <c r="B20" s="21">
         <v>18</v>
       </c>
@@ -2068,11 +2641,20 @@
       <c r="D20" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:8">
       <c r="B21" s="21">
         <v>19</v>
       </c>
@@ -2082,11 +2664,20 @@
       <c r="D21" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:8">
       <c r="B22" s="21">
         <v>20</v>
       </c>
@@ -2096,11 +2687,20 @@
       <c r="D22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:8">
       <c r="B23" s="21">
         <v>21</v>
       </c>
@@ -2110,11 +2710,20 @@
       <c r="D23" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:8">
       <c r="B24" s="21">
         <v>22</v>
       </c>
@@ -2124,11 +2733,20 @@
       <c r="D24" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:8">
       <c r="B25" s="21">
         <v>23</v>
       </c>
@@ -2138,11 +2756,20 @@
       <c r="D25" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:8">
       <c r="B26" s="21">
         <v>24</v>
       </c>
@@ -2152,11 +2779,20 @@
       <c r="D26" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="31">
+    <row r="27" spans="2:8" ht="31">
       <c r="B27" s="21">
         <v>25</v>
       </c>
@@ -2166,11 +2802,20 @@
       <c r="D27" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="31">
+    <row r="28" spans="2:8" ht="31">
       <c r="B28" s="21">
         <v>26</v>
       </c>
@@ -2180,11 +2825,20 @@
       <c r="D28" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="32" thickBot="1">
+    <row r="29" spans="2:8" ht="32" thickBot="1">
       <c r="B29" s="11">
         <v>27</v>
       </c>
@@ -2194,7 +2848,16 @@
       <c r="D29" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2212,19 +2875,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E22"/>
+  <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="5" width="70.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="7" width="40.1640625" customWidth="1"/>
+    <col min="8" max="8" width="47.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="19" thickBot="1"/>
-    <row r="2" spans="2:5" ht="19" thickBot="1">
+    <row r="1" spans="2:8" ht="19" thickBot="1"/>
+    <row r="2" spans="2:8" ht="19" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2234,11 +2901,20 @@
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="31">
+    <row r="3" spans="2:8" ht="31">
       <c r="B3" s="10">
         <v>1</v>
       </c>
@@ -2248,11 +2924,20 @@
       <c r="D3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="31">
+    <row r="4" spans="2:8" ht="31">
       <c r="B4" s="27">
         <v>2</v>
       </c>
@@ -2262,11 +2947,20 @@
       <c r="D4" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="31">
+    <row r="5" spans="2:8" ht="31">
       <c r="B5" s="27">
         <v>3</v>
       </c>
@@ -2276,11 +2970,20 @@
       <c r="D5" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="31">
+    <row r="6" spans="2:8" ht="31">
       <c r="B6" s="27">
         <v>4</v>
       </c>
@@ -2290,11 +2993,20 @@
       <c r="D6" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="31">
+    <row r="7" spans="2:8" ht="31">
       <c r="B7" s="27">
         <v>5</v>
       </c>
@@ -2304,11 +3016,20 @@
       <c r="D7" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="31">
+    <row r="8" spans="2:8" ht="31">
       <c r="B8" s="27">
         <v>6</v>
       </c>
@@ -2318,11 +3039,20 @@
       <c r="D8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="31">
+    <row r="9" spans="2:8" ht="31">
       <c r="B9" s="17">
         <v>7</v>
       </c>
@@ -2332,11 +3062,20 @@
       <c r="D9" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="31">
+    <row r="10" spans="2:8" ht="31">
       <c r="B10" s="17">
         <v>8</v>
       </c>
@@ -2346,11 +3085,20 @@
       <c r="D10" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="31">
+    <row r="11" spans="2:8" ht="31">
       <c r="B11" s="17">
         <v>9</v>
       </c>
@@ -2360,11 +3108,20 @@
       <c r="D11" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="31">
+    <row r="12" spans="2:8" ht="31">
       <c r="B12" s="17">
         <v>10</v>
       </c>
@@ -2374,11 +3131,20 @@
       <c r="D12" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="31">
+    <row r="13" spans="2:8" ht="31">
       <c r="B13" s="17">
         <v>11</v>
       </c>
@@ -2388,11 +3154,20 @@
       <c r="D13" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="31">
+    <row r="14" spans="2:8" ht="31">
       <c r="B14" s="17">
         <v>12</v>
       </c>
@@ -2402,11 +3177,20 @@
       <c r="D14" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="31">
+    <row r="15" spans="2:8" ht="31">
       <c r="B15" s="17">
         <v>13</v>
       </c>
@@ -2416,11 +3200,20 @@
       <c r="D15" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="31">
+    <row r="16" spans="2:8" ht="31">
       <c r="B16" s="17">
         <v>14</v>
       </c>
@@ -2430,11 +3223,20 @@
       <c r="D16" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="31">
+    <row r="17" spans="2:8" ht="31">
       <c r="B17" s="17">
         <v>15</v>
       </c>
@@ -2444,11 +3246,20 @@
       <c r="D17" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="31">
+    <row r="18" spans="2:8" ht="31">
       <c r="B18" s="17">
         <v>16</v>
       </c>
@@ -2458,11 +3269,20 @@
       <c r="D18" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="31">
+    <row r="19" spans="2:8" ht="31">
       <c r="B19" s="17">
         <v>17</v>
       </c>
@@ -2472,11 +3292,20 @@
       <c r="D19" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="31">
+    <row r="20" spans="2:8" ht="31">
       <c r="B20" s="17">
         <v>18</v>
       </c>
@@ -2486,11 +3315,20 @@
       <c r="D20" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="32" thickBot="1">
+    <row r="21" spans="2:8" ht="32" thickBot="1">
       <c r="B21" s="21">
         <v>19</v>
       </c>
@@ -2500,15 +3338,27 @@
       <c r="D21" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:8">
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/adhafera/test/system_spec.xlsx
+++ b/adhafera/test/system_spec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15660" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15900" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="正常系" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="149">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -670,25 +670,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>家計簿を登録（日付，金額不正）</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キンガク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>フセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>家計簿を検索（日付不正）</t>
     <rPh sb="0" eb="3">
       <t>カケイボ</t>
@@ -891,19 +872,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/[:table]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>date, content, category, price</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/[:table]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -963,15 +932,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>condition: [date, content, category, price]{2,4}
-with: *</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[date, content, category, price]{2,4}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>condition: -
 with: *</t>
     <phoneticPr fontId="1"/>
@@ -997,172 +957,414 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/settlement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/settlement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>period=monthly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>period=weekly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>period=daily</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Query</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Body</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date=invalid_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price=invalid_price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>period=invalid_period</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: invalid_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: invalid_price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>with: invalid_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>with: invalid_price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>with: -</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accounts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を検索（種類指定）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>シュルイシテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/accounts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type, date, content, category, price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステータスコード200を返す
+・正しい検索結果を返す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[type, date, content, category, price]{2,5}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を更新（種類条件指定）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: type
+with: *</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: [type, date, content, category, price]{2,5}
+with: *</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を更新（更新後の種類指定）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウシンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>condition: *
-with: [date, content, category, price]{2,4}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[date, content, category, price]{2,4}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/settlement</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/settlement</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>period=monthly</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>period=weekly</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>period=daily</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Path</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Query</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Body</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/[:table]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>content, category, price</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>date, category, price</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>date, content, price</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>date, content, category</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[date, content, category, price]{1,2}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>invalid_date, content, category, price</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>date, content, category, invalid_price</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>invalid_date, content, category, invalid_price</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>date=invalid_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>price=invalid_price</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>period=invalid_period</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>condition: invalid_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>condition: invalid_price</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>with: invalid_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>with: invalid_price</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>with: -</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>invalid_date, content, category, price</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>date, content, category, invalid_price</t>
+with: type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: *
+with: [type, date, content, category, price]{2,5}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を削除（種類指定）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を登録（種類なし）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date, content, category, price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type, content, category, price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>typre, date, category, price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>typre, date, content, price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type, date, content, category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[type, date, content, category, price]{1,2}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type, invalid_date, content, category, price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type, date, content, category, invalid_price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を登録（種類不正）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>invalid_type, date, content, category, price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を登録（複数不正）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を検索（種類不正）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type=invalid_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を更新（種類条件不正）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: invalid_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を更新（更新後の種類不正）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウシンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>with: invalid_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を削除（種類不正）</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>invalid_type, date, content, category, price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type|incalid_type, date|invalid_date, content, category, price|invalid_price</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1219,7 +1421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1693,8 +1895,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1720,8 +1983,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1737,9 +2024,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1834,9 +2118,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1846,8 +2127,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="49">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -1860,6 +2162,18 @@
     <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1873,6 +2187,18 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2201,10 +2527,777 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H29"/>
+  <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="40.1640625" customWidth="1"/>
+    <col min="7" max="7" width="44.83203125" customWidth="1"/>
+    <col min="8" max="8" width="47.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="19" thickBot="1"/>
+    <row r="2" spans="2:8" ht="19" thickBot="1">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="31">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="31">
+      <c r="B4" s="16">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="31">
+      <c r="B5" s="12">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="31">
+      <c r="B6" s="16">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="31">
+      <c r="B7" s="12">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="31">
+      <c r="B8" s="16">
+        <v>6</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="31">
+      <c r="B9" s="12">
+        <v>7</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="31">
+      <c r="B10" s="16">
+        <v>8</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="31">
+      <c r="B11" s="12">
+        <v>9</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="31">
+      <c r="B12" s="16">
+        <v>10</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="31">
+      <c r="B13" s="12">
+        <v>11</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="31">
+      <c r="B14" s="16">
+        <v>12</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="31">
+      <c r="B15" s="12">
+        <v>13</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="31">
+      <c r="B16" s="16">
+        <v>14</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="31">
+      <c r="B17" s="12">
+        <v>15</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="31">
+      <c r="B18" s="16">
+        <v>16</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="31">
+      <c r="B19" s="12">
+        <v>17</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="31">
+      <c r="B20" s="16">
+        <v>18</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="31">
+      <c r="B21" s="12">
+        <v>19</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="31">
+      <c r="B22" s="16">
+        <v>20</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="31">
+      <c r="B23" s="12">
+        <v>21</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="16">
+        <v>22</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="12">
+        <v>23</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="16">
+        <v>24</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="12">
+        <v>25</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="16">
+        <v>26</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="12">
+        <v>27</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="16">
+        <v>28</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="31">
+      <c r="B31" s="12">
+        <v>29</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="31">
+      <c r="B32" s="16">
+        <v>30</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="32" thickBot="1">
+      <c r="B33" s="10">
+        <v>31</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2227,1138 +3320,602 @@
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>63</v>
+      <c r="E2" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>95</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="31">
-      <c r="B3" s="10">
+      <c r="B3" s="45">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="31">
+      <c r="B4" s="16">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="31">
+      <c r="B5" s="26">
+        <v>3</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="31">
+      <c r="B6" s="16">
+        <v>4</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="31">
+      <c r="B7" s="26">
         <v>5</v>
       </c>
-      <c r="E3" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="31">
-      <c r="B4" s="13">
-        <v>2</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="C7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="31">
+      <c r="B8" s="16">
+        <v>6</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="31">
+      <c r="B9" s="26">
+        <v>7</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="31">
+      <c r="B10" s="16">
+        <v>8</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="31">
+      <c r="B11" s="26">
+        <v>9</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="31">
+      <c r="B12" s="16">
+        <v>10</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="31">
+      <c r="B13" s="26">
         <v>11</v>
       </c>
-      <c r="E4" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="31">
-      <c r="B5" s="17">
-        <v>3</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="C13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="31">
+      <c r="B14" s="16">
         <v>12</v>
       </c>
-      <c r="E5" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="31">
-      <c r="B6" s="17">
-        <v>4</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="C14" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="31">
+      <c r="B15" s="26">
         <v>13</v>
       </c>
-      <c r="E6" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="31">
-      <c r="B7" s="17">
-        <v>5</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="C15" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="31">
+      <c r="B16" s="16">
         <v>14</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="31">
-      <c r="B8" s="17">
-        <v>6</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="31">
-      <c r="B9" s="17">
-        <v>7</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="31">
-      <c r="B10" s="17">
-        <v>8</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="C16" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="31">
+      <c r="B17" s="26">
         <v>15</v>
       </c>
-      <c r="E10" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="31">
-      <c r="B11" s="17">
-        <v>9</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="19" t="s">
+      <c r="C17" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="31">
+      <c r="B18" s="16">
         <v>16</v>
       </c>
-      <c r="E11" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="31">
-      <c r="B12" s="17">
-        <v>10</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="19" t="s">
+      <c r="C18" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="31">
+      <c r="B19" s="26">
         <v>17</v>
       </c>
-      <c r="E12" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="31">
-      <c r="B13" s="17">
-        <v>11</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="19" t="s">
+      <c r="C19" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="31">
+      <c r="B20" s="16">
         <v>18</v>
       </c>
-      <c r="E13" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="31">
-      <c r="B14" s="17">
-        <v>12</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="19" t="s">
+      <c r="C20" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="31">
+      <c r="B21" s="26">
         <v>19</v>
       </c>
-      <c r="E14" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="31">
-      <c r="B15" s="17">
-        <v>13</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="19" t="s">
+      <c r="C21" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="31">
+      <c r="B22" s="16">
         <v>20</v>
       </c>
-      <c r="E15" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="31">
-      <c r="B16" s="21">
-        <v>14</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="23" t="s">
+      <c r="C22" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="31">
+      <c r="B23" s="26">
         <v>21</v>
       </c>
-      <c r="E16" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="31">
-      <c r="B17" s="21">
-        <v>15</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="23" t="s">
+      <c r="C23" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="31">
+      <c r="B24" s="16">
         <v>22</v>
       </c>
-      <c r="E17" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="31">
-      <c r="B18" s="21">
-        <v>16</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="23" t="s">
+      <c r="C24" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="31">
+      <c r="B25" s="26">
         <v>23</v>
       </c>
-      <c r="E18" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="40" t="s">
+      <c r="C25" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="31">
+      <c r="B26" s="16">
+        <v>24</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="32" thickBot="1">
+      <c r="B27" s="20">
+        <v>25</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="31">
-      <c r="B19" s="21">
-        <v>17</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="31">
-      <c r="B20" s="21">
-        <v>18</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="21">
-        <v>19</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="21">
-        <v>20</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="21">
-        <v>21</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="21">
-        <v>22</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="21">
-        <v>23</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="21">
-        <v>24</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="31">
-      <c r="B27" s="21">
-        <v>25</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="31">
-      <c r="B28" s="21">
-        <v>26</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="G28" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="32" thickBot="1">
-      <c r="B29" s="11">
-        <v>27</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="3.1640625" customWidth="1"/>
-    <col min="4" max="4" width="47.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
-    <col min="6" max="7" width="40.1640625" customWidth="1"/>
-    <col min="8" max="8" width="47.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="19" thickBot="1"/>
-    <row r="2" spans="2:8" ht="19" thickBot="1">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="31">
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="31">
-      <c r="B4" s="27">
-        <v>2</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="43" t="s">
+      <c r="F27" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="31">
-      <c r="B5" s="27">
-        <v>3</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="31">
-      <c r="B6" s="27">
-        <v>4</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="31">
-      <c r="B7" s="27">
-        <v>5</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="31">
-      <c r="B8" s="27">
-        <v>6</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="31">
-      <c r="B9" s="17">
-        <v>7</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="31">
-      <c r="B10" s="17">
-        <v>8</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="31">
-      <c r="B11" s="17">
-        <v>9</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="31">
-      <c r="B12" s="17">
-        <v>10</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="G12" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="31">
-      <c r="B13" s="17">
-        <v>11</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="31">
-      <c r="B14" s="17">
-        <v>12</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="31">
-      <c r="B15" s="17">
-        <v>13</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="31">
-      <c r="B16" s="17">
-        <v>14</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="31">
-      <c r="B17" s="17">
-        <v>15</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="31">
-      <c r="B18" s="17">
-        <v>16</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="31">
-      <c r="B19" s="17">
-        <v>17</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="31">
-      <c r="B20" s="17">
-        <v>18</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="32" thickBot="1">
-      <c r="B21" s="21">
-        <v>19</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="30" t="s">
+      <c r="G27" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
